--- a/public/data/InitialData/-867178004.xlsx
+++ b/public/data/InitialData/-867178004.xlsx
@@ -16,13 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Задача</t>
   </si>
@@ -173,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,10 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -735,8 +741,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +750,7 @@
     <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -760,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -768,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,23 +782,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -800,7 +812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -808,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -816,7 +828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -824,15 +836,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -840,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -848,7 +860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -856,7 +868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -864,11 +876,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -892,7 +904,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -916,7 +928,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/public/data/InitialData/-867178004.xlsx
+++ b/public/data/InitialData/-867178004.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Задача</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Доработал масшабирование</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,7 +190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -739,10 +749,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +850,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -880,7 +890,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -904,7 +914,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -928,7 +938,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -959,8 +969,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/data/InitialData/-867178004.xlsx
+++ b/public/data/InitialData/-867178004.xlsx
@@ -751,8 +751,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
